--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed5/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.720000000000001</v>
+        <v>5.707000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.084000000000001</v>
+        <v>6.896000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.32</v>
+        <v>-21.464</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.721</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.512</v>
+        <v>5.938999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.388</v>
+        <v>-21.568</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.8</v>
+        <v>6.706</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.412</v>
+        <v>-20.971</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.208</v>
+        <v>-21.163</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.442</v>
+        <v>-21.106</v>
       </c>
       <c r="B31" t="n">
-        <v>5.715999999999999</v>
+        <v>6.205</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.49</v>
+        <v>-20.97</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.154000000000001</v>
+        <v>7.273000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.23</v>
+        <v>-20.972</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.81</v>
+        <v>7.320000000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.49</v>
+        <v>6.883</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>7.522</v>
+        <v>8.642999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.448</v>
+        <v>5.89</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.208</v>
+        <v>-21.297</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.23</v>
+        <v>5.46</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.072</v>
+        <v>-21.856</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.214</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.668</v>
+        <v>-21.803</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.582</v>
+        <v>5.332</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.588</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.794</v>
+        <v>-21.721</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.567</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.932</v>
+        <v>-20.628</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.853999999999999</v>
+        <v>6.931</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.754</v>
+        <v>-20.146</v>
       </c>
       <c r="B83" t="n">
-        <v>7.517999999999999</v>
+        <v>6.776999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.93</v>
+        <v>-21.911</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.522</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.138</v>
+        <v>-21.49</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.44</v>
+        <v>-20.938</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.517</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>6.428</v>
+        <v>6.984</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
